--- a/normativa/Anexos/L01T03C08/L01T03C08A04.xlsx
+++ b/normativa/Anexos/L01T03C08/L01T03C08A04.xlsx
@@ -68,29 +68,6 @@
   </si>
   <si>
     <t>Tipo de acción (Apertura, Cierre o Traslado):</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red Supernet.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -178,6 +155,39 @@
   <si>
     <t xml:space="preserve">Punto de atención financiera, ubicado en entidades públicas, empresas o negocios privados, con el objeto de prestar servicios de depósitos y retiros de cuentas, recibir pagos de créditos, pagar a funcionarios públicos, compra y venta de monedas extranjeras, pago de rentas y bonos, prestar servicios de cobranza a clientes y usuarios por cuenta de instituciones públicas o empresas privadas, así como  realizar la carga y efectivización de dinero electrónico almacenado en la billetera móvil, prestar servicios de giros y emitir órdenes de pago exigibles en el país o en el extranjero. La oficina externa podrá estar ubicada en instalaciones de una entidad privada de carácter financiero, sólo si pertenece al mismo conglomerado financiero. En municipios con nivel bajo o nulo de cobertura geográfica de servicios financieros,  la oficina externa podrá, además otorgar créditos y abrir cuentas en caja de ahorro o cuentas de pago.
 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red ASFINet</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -395,27 +405,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -433,6 +422,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,7 +509,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -787,11 +797,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:AL5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A20" zoomScale="115" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="3.7109375" style="1"/>
   </cols>
@@ -819,88 +829,88 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -943,46 +953,46 @@
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>22</v>
+      <c r="A5" s="30" t="s">
+        <v>21</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="39"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="32"/>
     </row>
     <row r="6" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1025,88 +1035,88 @@
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="37"/>
     </row>
     <row r="8" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="37"/>
     </row>
     <row r="9" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -1191,46 +1201,46 @@
       <c r="AL10" s="10"/>
     </row>
     <row r="11" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="36"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="29"/>
     </row>
     <row r="12" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
@@ -1358,7 +1368,7 @@
     </row>
     <row r="15" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -1526,7 +1536,7 @@
     </row>
     <row r="19" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -1610,7 +1620,7 @@
     </row>
     <row r="21" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1734,7 +1744,7 @@
     </row>
     <row r="24" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -2301,33 +2311,33 @@
       <c r="AL37" s="7"/>
     </row>
     <row r="38" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
@@ -2421,46 +2431,46 @@
       <c r="AL40" s="7"/>
     </row>
     <row r="41" spans="1:38" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>19</v>
+      <c r="A41" s="38" t="s">
+        <v>18</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="27"/>
-      <c r="AI41" s="27"/>
-      <c r="AJ41" s="27"/>
-      <c r="AK41" s="27"/>
-      <c r="AL41" s="27"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="38"/>
+      <c r="AE41" s="38"/>
+      <c r="AF41" s="38"/>
+      <c r="AG41" s="38"/>
+      <c r="AH41" s="38"/>
+      <c r="AI41" s="38"/>
+      <c r="AJ41" s="38"/>
+      <c r="AK41" s="38"/>
+      <c r="AL41" s="38"/>
     </row>
     <row r="42" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -2631,6 +2641,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A41:AL41"/>
+    <mergeCell ref="A38:AA38"/>
+    <mergeCell ref="A5:AL5"/>
+    <mergeCell ref="A2:AL2"/>
+    <mergeCell ref="A3:AL3"/>
+    <mergeCell ref="A7:AL7"/>
+    <mergeCell ref="A8:AL8"/>
     <mergeCell ref="A18:AL18"/>
     <mergeCell ref="A27:AL27"/>
     <mergeCell ref="A19:AL19"/>
@@ -2640,16 +2657,9 @@
     <mergeCell ref="A15:AL15"/>
     <mergeCell ref="A16:AL16"/>
     <mergeCell ref="A17:AL17"/>
-    <mergeCell ref="A5:AL5"/>
-    <mergeCell ref="A2:AL2"/>
-    <mergeCell ref="A3:AL3"/>
-    <mergeCell ref="A7:AL7"/>
-    <mergeCell ref="A8:AL8"/>
     <mergeCell ref="A24:AL24"/>
     <mergeCell ref="A25:AL25"/>
     <mergeCell ref="A26:AL26"/>
-    <mergeCell ref="A41:AL41"/>
-    <mergeCell ref="A38:AA38"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="63" orientation="portrait" r:id="rId1"/>
@@ -2657,7 +2667,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;6&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Negrita"&amp;5&amp;K0033CCControl de versiones&amp;"Arial,Normal"&amp;K01+000
-Circular ASFI/472/2017 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
+Circular ASFI/828/2024 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título III
 Capítulo  VIII
 Anexo 4
